--- a/Doc/src/Doc/templates/doc_logger.xlsx
+++ b/Doc/src/Doc/templates/doc_logger.xlsx
@@ -406,7 +406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1284,6 +1284,116 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>13/04/2023</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4656</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>БСД-6/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>13/04/2023</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>54656</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>БСД-6/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>13/04/2023</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>54656</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>БСД-6/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>13/04/2023</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>БСД-6/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>13/04/2023</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>БСД-6/1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
